--- a/supp_files/File_S4.xlsx
+++ b/supp_files/File_S4.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weierguo/Documents/QTL_manuscript/supp_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C5A23-3CD8-3848-9060-84498B582D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC4611-7512-5041-BB74-5C01A339D9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="2000" windowWidth="27640" windowHeight="16440" xr2:uid="{C736B06D-D806-F444-8284-D34BDD18E65C}"/>
+    <workbookView xWindow="7520" yWindow="1800" windowWidth="23560" windowHeight="16060" activeTab="2" xr2:uid="{63EE2AC5-DF2B-D94A-8521-E2EE1F54EA7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="single" sheetId="8" r:id="rId1"/>
+    <sheet name="combined" sheetId="9" r:id="rId2"/>
+    <sheet name="Caption" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,83 +38,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+  <si>
+    <t>Pheno</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Nig</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Allelic</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>PC1_y1_y2</t>
+  </si>
+  <si>
+    <t>PC4_y1_y2</t>
+  </si>
+  <si>
+    <t>Rsquared</t>
+  </si>
+  <si>
+    <t>Area_y1_y2</t>
+  </si>
+  <si>
+    <t>Circularity_y1_y2</t>
+  </si>
+  <si>
+    <t>Horizontal_symmetry_y1_y2</t>
+  </si>
+  <si>
+    <t>Width_y1_y2</t>
+  </si>
+  <si>
+    <t>Indent_depth_y1_y2</t>
+  </si>
+  <si>
+    <t>Indent_width_y1_y2</t>
+  </si>
+  <si>
+    <t>Num_Indents_y1_y2</t>
+  </si>
+  <si>
+    <t>PC1:PC2_y1_y2</t>
+  </si>
+  <si>
+    <t>PC1:PC3_y1_y2</t>
+  </si>
+  <si>
+    <t>PC1:PC4_y1_y2</t>
+  </si>
+  <si>
+    <t>PC3:PC4_y1_y2</t>
+  </si>
+  <si>
+    <t>Perimeter_y1_y2</t>
+  </si>
+  <si>
+    <t>Perimeter2:Area2_y1_y2</t>
+  </si>
+  <si>
+    <t>Length_y1_y2</t>
+  </si>
+  <si>
+    <t>Length:width_y1_y2</t>
+  </si>
+  <si>
+    <t>Bud_burst_y1_y2</t>
+  </si>
+  <si>
+    <t>Color_y1_y2_y3</t>
+  </si>
+  <si>
+    <t>Drop_y1_y2_y3</t>
+  </si>
+  <si>
+    <t>Green_canopy_duration_y1_y2</t>
+  </si>
+  <si>
+    <t>Time_serie_bud_burst_y1_y2</t>
+  </si>
+  <si>
+    <t>Time_serie_color_y1_y2_y3</t>
+  </si>
+  <si>
+    <t>Time_serie_drop_y1_y2_y3</t>
+  </si>
+  <si>
+    <t>Coppicing_y1</t>
+  </si>
+  <si>
+    <t>Diameter_base</t>
+  </si>
+  <si>
+    <t>Time_serie_diameter_breast_height</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>single sheet</t>
+  </si>
+  <si>
+    <t>combined sheet</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Time_serie_diameter_base</t>
+  </si>
+  <si>
+    <t>Time_serie_height</t>
+  </si>
+  <si>
+    <t>Time_serie_volume</t>
+  </si>
   <si>
     <t>Trait</t>
   </si>
   <si>
-    <t>Horizontal_symmetry_y1_y2</t>
-  </si>
-  <si>
-    <t>Width_y1_y2</t>
-  </si>
-  <si>
-    <t>Indent_depth_y1_y2</t>
-  </si>
-  <si>
-    <t>Indent_width_y1_y2</t>
-  </si>
-  <si>
-    <t>PC1:PC2_y1_y2</t>
-  </si>
-  <si>
-    <t>PC1:PC3_y1_y2</t>
-  </si>
-  <si>
-    <t>PC1:PC4_y1_y2</t>
-  </si>
-  <si>
-    <t>Perimeter2:Area2_y1_y2</t>
-  </si>
-  <si>
-    <t>Length_y1_y2</t>
-  </si>
-  <si>
-    <t>Bud_burst_y1_y2</t>
-  </si>
-  <si>
-    <t>Color_y1_y2_y3</t>
-  </si>
-  <si>
-    <t>Drop_y1_y2_y3</t>
-  </si>
-  <si>
-    <t>Green_canopy_duration_y1_y2</t>
-  </si>
-  <si>
-    <t>Time_serie_bud_burst_y1_y2</t>
-  </si>
-  <si>
-    <t>Time_serie_color_y1_y2_y3</t>
-  </si>
-  <si>
-    <t>Time_serie_drop_y1_y2_y3</t>
-  </si>
-  <si>
-    <t>Time_serie_height</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trait</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: The traits exhibited both allelic and dosage QTLs. These traits were used to investigate the collective effect of allelic and dosage QTLs. </t>
-    </r>
+    <t>Trait names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of phenotypic variance explained by P. deltoides haplotypes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of phenotypic variance explained by P. nigra haplotypes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of phenotypic variance explained by dosage states. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of phenotypic variance explained by P. deltoides and P. nigra haplotypes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of phenotypic variance explained by dosage variation. </t>
+  </si>
+  <si>
+    <t>Percentage of phenotypic variance explained by all three variations (P. deltoides, P. nigra and dosage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of phenotypic variance explained by all QTLs. </t>
+  </si>
+  <si>
+    <t>Column name</t>
+  </si>
+  <si>
+    <t>Explanation</t>
   </si>
 </sst>
 </file>
@@ -122,10 +212,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,6 +234,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,10 +262,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,202 +583,1095 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDD59F1-E443-2D47-84C7-94CBA749EF8B}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4D8263-20D6-3E49-82CB-F3AAC4C70CEE}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.8055701928396406</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9.8055701928396406</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9.8055701928396406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11.732607700000001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11.732607700000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>11.732607700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10.7827628243597</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.7827628243597</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10.7827628243597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.9951012491818401</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.24914308261177</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10.0005715851118</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10.0005715851118</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.2040316706332499</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.2040316706332499</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.2040316706332499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.8091334681291498</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.8091334681291498</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.8091334681291498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19.837146113106499</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19.837146113106499</v>
+      </c>
+      <c r="G8" s="1">
+        <v>19.837146113106499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0814393642310298</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.7146201649527</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0814393642310298</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10.7146201649527</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23.706592160512301</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>23.706592160512301</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23.706592160512301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.1085803061130299</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12.782597435121501</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.1085803061130299</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12.782597435121501</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21.0964252072182</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>21.0964252072182</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21.0964252072182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.3035230736091199</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.5793520516339701</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.3035230736091199</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6.5793520516339701</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13.4278012669022</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13.4278012669022</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13.4278012669022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.4285433331239803</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.4285433331239803</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.4285433331239803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.9999239877884998</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.9999239877884998</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.9999239877884998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.4539369804096598</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.4539369804096598</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.4539369804096598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.66976217666023</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19.275420454855599</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.66976217666023</v>
+      </c>
+      <c r="F18" s="1">
+        <v>19.275420454855599</v>
+      </c>
+      <c r="G18" s="1">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.6189747655753797</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.5555925459539397</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.6189747655753797</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.5555925459539397</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.0905826908571603</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>14.177238089248201</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.0905826908571603</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14.177238089248201</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.4173668363311496</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.9460215818509203</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.4173668363311496</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.9460215818509203</v>
+      </c>
+      <c r="G21" s="1">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.7952781790643897</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6.7952781790643897</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6.7952781790643897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.2480133169858796</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17.7369082205879</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7.2480133169858796</v>
+      </c>
+      <c r="F23" s="1">
+        <v>17.7369082205879</v>
+      </c>
+      <c r="G23" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.8081722232844002</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.7328645995356595</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.8081722232844002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9.7328645995356595</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4.8001570298790002</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12.689982321459301</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.8001570298790002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.689982321459301</v>
+      </c>
+      <c r="G25" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4.6107391311803498</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.0392999221119403</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.6107391311803498</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7.0392999221119403</v>
+      </c>
+      <c r="G26" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.4377357015381098</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.4377357015381098</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.4377357015381098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.5599578504673604</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7.5599578504673604</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.5599578504673604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.5169285555097396</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.5169285555097396</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.5169285555097396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324D4C3E-C6ED-AE45-B0EC-9E014DB2CA01}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.5664337277134601</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.2267133607025302</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>38.715033656497297</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4.51933707456881</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7.6563017603428003</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24.815531077832201</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>37.0338865518316</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>86.885541076649801</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>19.6620155788478</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39.694948946233097</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.5301915162022297</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.1399166318466696</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.7941014476439801</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>94.657310814991604</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>49.722004549352199</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>22.013166038636001</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>11.319117282178899</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12.8603474424116</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>37.905895219668601</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3">
+        <v>17.916123143794199</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19.862334508507999</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8.7801805278135401</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7.5224407835538303</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3">
+        <v>22.443198501301499</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3">
+        <v>8.1307076023611202</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="3">
+        <v>12.803947010848599</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14.174172195832201</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="E29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A0017-08A4-8D4F-9DA5-A41F3C8D4432}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
